--- a/target/classes/streams/University.xlsx
+++ b/target/classes/streams/University.xlsx
@@ -3,24 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianselvarajaugustine/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianselvarajaugustine/eclipse-workspace/JavaTest/src/main/java/streams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6735EFBA-7006-2C47-9861-16FE0EBAC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807300E-CA57-0941-A9DF-EC25C9683B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{41272186-299A-1047-93BA-57D552DFC74C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{41272186-299A-1047-93BA-57D552DFC74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="StudentInfo" r:id="rId7" sheetId="4"/>
+    <sheet name="StudentInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Sebastian Selvaraj Augustine - Personal View" guid="{87836CE1-4DB2-4F4B-94E8-B1C7194745A4}" mergeInterval="0" personalView="1" maximized="1" yWindow="38" windowWidth="1512" windowHeight="887" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -62,7 +65,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,6 +111,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{590BCFF2-07E2-7C4B-BB77-39DCB7EC9778}">
+  <header guid="{590BCFF2-07E2-7C4B-BB77-39DCB7EC9778}" dateTime="2025-05-18T18:54:20" maxSheetId="5" userName="Sebastian Selvaraj Augustine" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,6 +437,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{87836CE1-4DB2-4F4B-94E8-B1C7194745A4}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -426,6 +454,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{87836CE1-4DB2-4F4B-94E8-B1C7194745A4}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -440,41 +473,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{87836CE1-4DB2-4F4B-94E8-B1C7194745A4}">
+      <selection activeCell="C3" sqref="C3:I13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <customSheetViews>
+    <customSheetView guid="{87836CE1-4DB2-4F4B-94E8-B1C7194745A4}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>